--- a/Modelos em Python/14 dias a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros todo.xlsx
+++ b/Modelos em Python/14 dias a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.30254252020077</v>
+        <v>42.34411223081739</v>
       </c>
       <c r="C11" t="n">
-        <v>114.4987767139164</v>
+        <v>114.6262261839788</v>
       </c>
       <c r="D11" t="n">
-        <v>129.6136918151886</v>
+        <v>129.7325062568388</v>
       </c>
     </row>
     <row r="12">
